--- a/SilentAuction/Documents/Stories.xlsx
+++ b/SilentAuction/Documents/Stories.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
   <si>
     <t>Create new Auction</t>
   </si>
@@ -111,9 +111,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -130,6 +127,15 @@
   </si>
   <si>
     <t>Attach/Print external document</t>
+  </si>
+  <si>
+    <t>Print Items Grid</t>
+  </si>
+  <si>
+    <t>Import Form Letters</t>
+  </si>
+  <si>
+    <t>Print Donor Letters</t>
   </si>
 </sst>
 </file>
@@ -468,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,7 +604,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -609,7 +615,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -620,7 +626,7 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -631,7 +637,7 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -642,7 +648,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -653,7 +659,7 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -664,7 +670,7 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -675,7 +681,7 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -686,7 +692,7 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -697,7 +703,7 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -705,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -716,10 +722,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -727,10 +733,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -738,10 +744,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -749,10 +755,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -760,10 +766,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -771,10 +777,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -782,10 +788,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -793,10 +799,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -804,10 +810,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -815,10 +821,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -826,17 +832,51 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
         <v>37</v>
       </c>
-      <c r="C32" t="s">
-        <v>33</v>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B29">
-    <sortCondition ref="A8"/>
+  <sortState ref="A2:C35">
+    <sortCondition ref="A17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/SilentAuction/Documents/Stories.xlsx
+++ b/SilentAuction/Documents/Stories.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stories" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
   <si>
     <t>Create new Auction</t>
   </si>
@@ -136,6 +136,15 @@
   </si>
   <si>
     <t>Print Donor Letters</t>
+  </si>
+  <si>
+    <t>Send Email to Donors</t>
+  </si>
+  <si>
+    <t>Store Image of Item</t>
+  </si>
+  <si>
+    <t>Delete Image once added?</t>
   </si>
 </sst>
 </file>
@@ -474,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,7 +764,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
         <v>31</v>
@@ -766,10 +775,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -777,10 +786,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -788,7 +797,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>32</v>
@@ -799,7 +808,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
@@ -810,7 +819,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
@@ -821,7 +830,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
@@ -832,7 +841,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
         <v>32</v>
@@ -843,7 +852,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
         <v>32</v>
@@ -854,7 +863,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
         <v>32</v>
@@ -865,15 +874,34 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
         <v>38</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C35">
-    <sortCondition ref="A17"/>
+  <sortState ref="A2:C36">
+    <sortCondition ref="A25"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -882,12 +910,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/SilentAuction/Documents/Stories.xlsx
+++ b/SilentAuction/Documents/Stories.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="24915" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Stories" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
   <si>
     <t>Create new Auction</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>Store Image of Item</t>
-  </si>
-  <si>
-    <t>Delete Image once added?</t>
   </si>
 </sst>
 </file>
@@ -485,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,7 +783,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
         <v>30</v>
@@ -797,10 +794,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -808,7 +805,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
@@ -819,7 +816,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
@@ -830,7 +827,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
         <v>32</v>
@@ -841,7 +838,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
         <v>32</v>
@@ -852,7 +849,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
         <v>32</v>
@@ -863,7 +860,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
         <v>32</v>
@@ -874,7 +871,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
         <v>32</v>
@@ -885,23 +882,26 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C36">
-    <sortCondition ref="A25"/>
+  <sortState ref="A2:C37">
+    <sortCondition ref="A30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -910,23 +910,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/SilentAuction/Documents/Stories.xlsx
+++ b/SilentAuction/Documents/Stories.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>Create new Auction</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>Store Image of Item</t>
+  </si>
+  <si>
+    <t>Setup for application - need gmail account</t>
+  </si>
+  <si>
+    <t>Email Attachments</t>
   </si>
 </sst>
 </file>
@@ -480,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,6 +902,22 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
         <v>32</v>
       </c>
     </row>

--- a/SilentAuction/Documents/Stories.xlsx
+++ b/SilentAuction/Documents/Stories.xlsx
@@ -488,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,7 +781,7 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -858,7 +858,7 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">

--- a/SilentAuction/Documents/Stories.xlsx
+++ b/SilentAuction/Documents/Stories.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <t>Create new Auction</t>
   </si>
@@ -78,9 +78,6 @@
     <t>EULA</t>
   </si>
   <si>
-    <t>Splash Screen</t>
-  </si>
-  <si>
     <t>Export to Excel</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -126,15 +120,6 @@
     <t>Print Bid Sheets</t>
   </si>
   <si>
-    <t>Attach/Print external document</t>
-  </si>
-  <si>
-    <t>Print Items Grid</t>
-  </si>
-  <si>
-    <t>Import Form Letters</t>
-  </si>
-  <si>
     <t>Print Donor Letters</t>
   </si>
   <si>
@@ -142,9 +127,6 @@
   </si>
   <si>
     <t>Store Image of Item</t>
-  </si>
-  <si>
-    <t>Setup for application - need gmail account</t>
   </si>
   <si>
     <t>Email Attachments</t>
@@ -486,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,13 +482,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -514,10 +496,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -528,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -539,7 +521,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -547,10 +529,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -561,7 +543,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -572,7 +554,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -583,7 +565,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -594,7 +576,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -605,7 +587,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -616,7 +598,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -627,7 +609,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -638,7 +620,7 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -649,7 +631,7 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -660,7 +642,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -671,7 +653,7 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -682,7 +664,7 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -693,7 +675,7 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -704,7 +686,7 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -715,7 +697,7 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -723,10 +705,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -734,10 +716,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -748,7 +730,7 @@
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -756,10 +738,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -767,10 +749,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -778,10 +760,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -789,10 +771,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -800,10 +782,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -814,7 +796,7 @@
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -822,10 +804,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -833,10 +815,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -844,10 +826,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -855,10 +837,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -866,59 +848,25 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
